--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_1_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>885634.0752851984</v>
+        <v>899095.2495855468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559512.0876269366</v>
+        <v>559512.0876269371</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7629222.170841196</v>
+        <v>7629222.170841197</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>223.0682478851372</v>
       </c>
       <c r="H2" t="n">
-        <v>316.4954457710096</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>60.43077831067195</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>167.2155107264657</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>326.455512674013</v>
       </c>
       <c r="F5" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>191.9810686250369</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0.4995939034842342</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,13 +989,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>35.15343343243143</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1038,7 +1040,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
         <v>190.5961130869169</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>297.6453099190477</v>
       </c>
       <c r="I8" t="n">
         <v>171.0890268032919</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>139.3205761694126</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0.4995939034842342</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -1224,13 +1226,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -1266,7 +1268,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>114.7118858851251</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.0829025420496</v>
+        <v>25.35959005531015</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,10 +1502,10 @@
         <v>147.4755605575067</v>
       </c>
       <c r="T12" t="n">
-        <v>185.9745311655618</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U12" t="n">
-        <v>216.2963996197277</v>
+        <v>216.2963996197281</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.053024110834542</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>17.10206975953227</v>
       </c>
       <c r="J13" t="n">
         <v>47.34362796447565</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>176.6529755334452</v>
+        <v>143.7358015348943</v>
       </c>
       <c r="T14" t="n">
-        <v>152.9575648127533</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
@@ -1670,7 +1672,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.053024110834542</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>64.44569772400793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>291.4467605924835</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>199.1079341825958</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>127.2368531361802</v>
       </c>
       <c r="H18" t="n">
-        <v>96.96477373240387</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I18" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013215034</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>99.67218115413839</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>152.851901770346</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>92.67869767811924</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>256.8200604040608</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>140.0790430442914</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>155.0412335280421</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>218.5826099145575</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>96.69103746740736</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
         <v>410.0096787829314</v>
@@ -2333,10 +2335,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H23" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I24" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S24" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575072</v>
       </c>
       <c r="T24" t="n">
         <v>185.9745311655613</v>
@@ -2457,7 +2459,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790232</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2476,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.9800895356564</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>17.65872016545585</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.2556384040709</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2557,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.50028792288262</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>176.6529755334452</v>
+        <v>89.98140308853738</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>127.2368531361795</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H27" t="n">
         <v>96.9647737324037</v>
       </c>
       <c r="I27" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S27" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T27" t="n">
         <v>185.9745311655613</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.05220189759607</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>124.8390672247518</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>411.5609956070679</v>
+        <v>373.5758363019383</v>
       </c>
       <c r="H29" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I29" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U29" t="n">
-        <v>193.69167304095</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I30" t="n">
-        <v>60.66232013214901</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112411</v>
       </c>
       <c r="S30" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T30" t="n">
         <v>185.9745311655613</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1181394583213</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.8519017703457</v>
       </c>
       <c r="T31" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
@@ -3041,10 +3043,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.5609956070679</v>
+        <v>139.1563079494267</v>
       </c>
       <c r="H32" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>169.7347650634251</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I33" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>46.49806561112275</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S33" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T33" t="n">
         <v>185.9745311655613</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>164.1663657719745</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>125.8532215944586</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S35" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.305926837283</v>
+        <v>127.3064306898458</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>299.3294487161222</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I36" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>46.49806561112344</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S36" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T36" t="n">
         <v>185.9745311655613</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3466,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>6.463239967235118</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>163.1522114022675</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>59.19264731890551</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>96.69103746740667</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>124.8390672247516</v>
       </c>
       <c r="X40" t="n">
-        <v>97.82157839927679</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>37.86300371639515</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
         <v>390.8378626949542</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.305926837283</v>
+        <v>190.2564058913825</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>46.49806561112366</v>
+        <v>46.49806561112344</v>
       </c>
       <c r="S42" t="n">
         <v>147.4755605575067</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>47.23084265461713</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>124.8390672247516</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
@@ -3989,10 +3991,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.5609956070679</v>
+        <v>181.947109775671</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>117.2017492122787</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>99.67218115413833</v>
       </c>
       <c r="W46" t="n">
-        <v>124.8390672247516</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.5338243580695</v>
+        <v>662.131438505332</v>
       </c>
       <c r="C2" t="n">
-        <v>534.5338243580695</v>
+        <v>662.131438505332</v>
       </c>
       <c r="D2" t="n">
-        <v>534.5338243580695</v>
+        <v>662.131438505332</v>
       </c>
       <c r="E2" t="n">
-        <v>534.5338243580695</v>
+        <v>267.3457186114388</v>
       </c>
       <c r="F2" t="n">
-        <v>534.5338243580695</v>
+        <v>267.3457186114388</v>
       </c>
       <c r="G2" t="n">
-        <v>534.5338243580695</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4352,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1659.098493404309</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V2" t="n">
-        <v>1322.119219300251</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W2" t="n">
-        <v>1322.119219300251</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.119219300251</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="Y2" t="n">
-        <v>928.5773638760887</v>
+        <v>1056.174978023351</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>552.412421524471</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="E3" t="n">
-        <v>405.3844115813423</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="F3" t="n">
-        <v>270.6906135312166</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G3" t="n">
-        <v>141.9621135545012</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L3" t="n">
-        <v>252.8463055811703</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1796.345051688814</v>
       </c>
       <c r="P3" t="n">
         <v>1943.441175274367</v>
@@ -4434,25 +4436,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>2041.428536154907</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1872.523979865548</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1644.128357313882</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1402.812488547192</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1204.895500424986</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
         <v>42.02425610119923</v>
@@ -4510,28 +4512,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R4" t="n">
-        <v>535.5461600008207</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S4" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>628.9926455822329</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="C5" t="n">
-        <v>628.9926455822329</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="D5" t="n">
-        <v>628.9926455822329</v>
+        <v>1707.670949635799</v>
       </c>
       <c r="E5" t="n">
-        <v>628.9926455822329</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F5" t="n">
-        <v>214.8414548924032</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
         <v>214.8414548924032</v>
@@ -4565,19 +4567,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1405.066325578759</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1405.066325578759</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1405.066325578759</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X5" t="n">
-        <v>1023.036185100252</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1023.036185100252</v>
+        <v>1707.670949635799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659.7968924819045</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="C6" t="n">
-        <v>498.0932197228592</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="D6" t="n">
-        <v>359.2545827130713</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>212.2265727699425</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>77.53277471981684</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>77.53277471981684</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
-        <v>77.53277471981684</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
@@ -4647,22 +4649,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L6" t="n">
-        <v>410.6179353667646</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M6" t="n">
-        <v>895.6512888769911</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N6" t="n">
-        <v>1406.916935000113</v>
+        <v>1404.145100904663</v>
       </c>
       <c r="O6" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P6" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4686,10 +4688,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X6" t="n">
-        <v>1011.737661613587</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.2163352631653</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4747,28 +4749,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.560933453489</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C8" t="n">
-        <v>609.6271747862963</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="D8" t="n">
-        <v>609.6271747862963</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="E8" t="n">
-        <v>214.8414548924032</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="F8" t="n">
-        <v>214.8414548924032</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>515.4932830934615</v>
       </c>
       <c r="H8" t="n">
         <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
         <v>114.0228003740049</v>
@@ -4817,37 +4819,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917372</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P8" t="n">
-        <v>2006.780551373425</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.853858790973</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1736.126004074395</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1736.126004074395</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>1373.591073931996</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X8" t="n">
-        <v>991.560933453489</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.560933453489</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624.2883738632869</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="C9" t="n">
-        <v>462.5847011042416</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="D9" t="n">
-        <v>323.7460640944537</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E9" t="n">
-        <v>176.7180541513249</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119924</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119924</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119924</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K9" t="n">
-        <v>44.79609019664946</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667651</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769915</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000114</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059962</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
-        <v>2101.212805059962</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059962</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072702</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1643.85762243553</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1415.461999883864</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1174.146131117174</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>976.229142994969</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>783.7078166445478</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -4981,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.797208433249</v>
+        <v>2517.080126130114</v>
       </c>
       <c r="C11" t="n">
-        <v>208.797208433249</v>
+        <v>2135.146367462922</v>
       </c>
       <c r="D11" t="n">
-        <v>208.797208433249</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E11" t="n">
-        <v>208.797208433249</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F11" t="n">
-        <v>208.797208433249</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G11" t="n">
-        <v>208.797208433249</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H11" t="n">
         <v>208.797208433249</v>
@@ -5051,7 +5053,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N11" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O11" t="n">
         <v>2124.896977382889</v>
@@ -5063,28 +5065,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S11" t="n">
-        <v>2297.855323089771</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T11" t="n">
-        <v>2075.185256440287</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U11" t="n">
-        <v>1820.330784887476</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V11" t="n">
-        <v>1483.351510783417</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W11" t="n">
-        <v>1120.816580641018</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X11" t="n">
-        <v>738.7864401625116</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y11" t="n">
-        <v>345.2445847383495</v>
+        <v>2542.695873660731</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J12" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L12" t="n">
-        <v>802.133840764949</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O12" t="n">
-        <v>2342.651863910041</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P12" t="n">
-        <v>2359.098500262959</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.695873660731</v>
@@ -5148,7 +5150,7 @@
         <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U12" t="n">
         <v>1940.428644414347</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="C13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="D13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="E13" t="n">
-        <v>716.7357218656998</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="F13" t="n">
-        <v>564.2550668914769</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="G13" t="n">
-        <v>395.508378968762</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="H13" t="n">
-        <v>237.6744007828319</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="I13" t="n">
         <v>98.6757639019779</v>
@@ -5218,31 +5220,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.8700896544216</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R13" t="n">
-        <v>724.8700896544216</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="S13" t="n">
-        <v>724.8700896544216</v>
+        <v>348.3900938121795</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="U13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="V13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="W13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="X13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C14" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D14" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E14" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F14" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G14" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H14" t="n">
         <v>50.85391747321462</v>
@@ -5288,7 +5290,7 @@
         <v>1310.379159876956</v>
       </c>
       <c r="N14" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O14" t="n">
         <v>2124.896977382889</v>
@@ -5300,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2476.292672113454</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S14" t="n">
-        <v>2297.855323089771</v>
+        <v>2397.508195342656</v>
       </c>
       <c r="T14" t="n">
-        <v>2143.352732369819</v>
+        <v>2174.838128693171</v>
       </c>
       <c r="U14" t="n">
-        <v>1888.498260817008</v>
+        <v>1919.98365714036</v>
       </c>
       <c r="V14" t="n">
-        <v>1551.518986712949</v>
+        <v>1583.004383036301</v>
       </c>
       <c r="W14" t="n">
-        <v>1188.98405657055</v>
+        <v>1220.469452893902</v>
       </c>
       <c r="X14" t="n">
-        <v>1188.98405657055</v>
+        <v>838.4393124153958</v>
       </c>
       <c r="Y14" t="n">
-        <v>795.442201146388</v>
+        <v>444.8974569912338</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421037</v>
+        <v>920.859395842104</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830588</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732708</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301421</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800164</v>
       </c>
       <c r="G15" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
         <v>112.1289883137699</v>
@@ -5355,22 +5357,22 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L15" t="n">
-        <v>802.133840764949</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M15" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N15" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2342.651863910041</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P15" t="n">
         <v>2542.695873660731</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E16" t="n">
-        <v>716.7357218656998</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F16" t="n">
-        <v>564.2550668914769</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G16" t="n">
-        <v>395.508378968762</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H16" t="n">
-        <v>237.6744007828319</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J16" t="n">
         <v>50.85391747321462</v>
@@ -5455,31 +5457,31 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>724.8700896544216</v>
+        <v>700.8242228045381</v>
       </c>
       <c r="R16" t="n">
-        <v>724.8700896544216</v>
+        <v>559.0838802267906</v>
       </c>
       <c r="S16" t="n">
-        <v>724.8700896544216</v>
+        <v>348.3900938121795</v>
       </c>
       <c r="T16" t="n">
-        <v>724.8700896544216</v>
+        <v>115.9505818408994</v>
       </c>
       <c r="U16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="V16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
-        <v>724.8700896544216</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G17" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H17" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J17" t="n">
         <v>154.9459054532635</v>
@@ -5519,7 +5521,7 @@
         <v>443.1860302481634</v>
       </c>
       <c r="L17" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M17" t="n">
         <v>1310.379159876956</v>
@@ -5534,10 +5536,10 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q17" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R17" t="n">
-        <v>2476.292672113453</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S17" t="n">
         <v>2297.855323089771</v>
@@ -5546,7 +5548,7 @@
         <v>2075.185256440287</v>
       </c>
       <c r="U17" t="n">
-        <v>1820.330784887475</v>
+        <v>1820.330784887476</v>
       </c>
       <c r="V17" t="n">
         <v>1483.351510783417</v>
@@ -5555,10 +5557,10 @@
         <v>1120.816580641018</v>
       </c>
       <c r="X17" t="n">
-        <v>738.7864401625111</v>
+        <v>738.7864401625116</v>
       </c>
       <c r="Y17" t="n">
-        <v>537.6673147255457</v>
+        <v>345.2445847383495</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>920.859395842104</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C18" t="n">
-        <v>759.1557230830588</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D18" t="n">
-        <v>620.3170860732708</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E18" t="n">
-        <v>473.2890761301421</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F18" t="n">
-        <v>338.5952780800164</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G18" t="n">
-        <v>210.0732042050869</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H18" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I18" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J18" t="n">
         <v>130.2226992162549</v>
       </c>
       <c r="K18" t="n">
-        <v>392.3832078845233</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L18" t="n">
-        <v>802.133840764949</v>
+        <v>477.85065097758</v>
       </c>
       <c r="M18" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
         <v>1578.032071547365</v>
@@ -5610,28 +5612,28 @@
         <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2359.098500262958</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q18" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R18" t="n">
         <v>2495.728130619192</v>
       </c>
       <c r="S18" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T18" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U18" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V18" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W18" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X18" t="n">
         <v>1272.800164973786</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K19" t="n">
         <v>104.1644935890949</v>
@@ -5698,25 +5700,25 @@
         <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>724.8700896544216</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="T19" t="n">
-        <v>492.4305776831415</v>
+        <v>624.1911187916555</v>
       </c>
       <c r="U19" t="n">
-        <v>205.2497778473015</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="V19" t="n">
-        <v>50.85391747321461</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.85391747321461</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1169.905481926666</v>
+        <v>1461.151528935766</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.905481926666</v>
+        <v>1461.151528935766</v>
       </c>
       <c r="D20" t="n">
-        <v>797.08151715389</v>
+        <v>1461.151528935766</v>
       </c>
       <c r="E20" t="n">
-        <v>797.08151715389</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F20" t="n">
-        <v>797.08151715389</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G20" t="n">
         <v>537.6673147255457</v>
@@ -5780,22 +5782,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T20" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U20" t="n">
-        <v>2320.025807011246</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V20" t="n">
-        <v>2320.025807011246</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W20" t="n">
-        <v>1957.490876868847</v>
+        <v>1843.181669414273</v>
       </c>
       <c r="X20" t="n">
-        <v>1957.490876868847</v>
+        <v>1461.151528935766</v>
       </c>
       <c r="Y20" t="n">
-        <v>1563.949021444686</v>
+        <v>1461.151528935766</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C21" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D21" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E21" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F21" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G21" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H21" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I21" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J21" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K21" t="n">
-        <v>251.6973914949265</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L21" t="n">
-        <v>661.4480243753522</v>
+        <v>802.133840764949</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.744201156453</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.629444945137</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520445</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q21" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R21" t="n">
         <v>2495.728130619192</v>
@@ -5859,16 +5861,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T21" t="n">
-        <v>2158.909856151447</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U21" t="n">
-        <v>1940.428644414348</v>
+        <v>1940.428644414347</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.033021862682</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W21" t="n">
-        <v>1470.717153095992</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X21" t="n">
         <v>1272.800164973786</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="C22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="D22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="E22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
       <c r="F22" t="n">
-        <v>50.85391747321462</v>
+        <v>2037.426389402239</v>
       </c>
       <c r="G22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="H22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="I22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="J22" t="n">
-        <v>50.85391747321462</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="K22" t="n">
-        <v>104.1644935890949</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L22" t="n">
-        <v>229.9889654324849</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M22" t="n">
-        <v>374.5706761520456</v>
+        <v>2192.396460158355</v>
       </c>
       <c r="N22" t="n">
-        <v>518.9490144159677</v>
+        <v>2336.774798422277</v>
       </c>
       <c r="O22" t="n">
-        <v>641.3872247924078</v>
+        <v>2459.213008798717</v>
       </c>
       <c r="P22" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q22" t="n">
-        <v>724.8700896544216</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="S22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="T22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="U22" t="n">
-        <v>724.8700896544216</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="V22" t="n">
-        <v>568.2627830604397</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="W22" t="n">
-        <v>282.1063815778389</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="X22" t="n">
-        <v>50.85391747321462</v>
+        <v>2400.955531082983</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.85391747321462</v>
+        <v>2178.92037227526</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1367.536682796252</v>
+        <v>1755.11047871855</v>
       </c>
       <c r="C23" t="n">
-        <v>1367.536682796252</v>
+        <v>1373.176720051357</v>
       </c>
       <c r="D23" t="n">
-        <v>1367.536682796252</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.536682796252</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F23" t="n">
-        <v>953.3854921064224</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G23" t="n">
-        <v>537.6673147255457</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H23" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I23" t="n">
         <v>50.85391747321462</v>
@@ -5990,7 +5992,7 @@
         <v>154.9459054532635</v>
       </c>
       <c r="K23" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L23" t="n">
         <v>850.7433998907118</v>
@@ -6008,31 +6010,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R23" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S23" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T23" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U23" t="n">
-        <v>2287.841402107919</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V23" t="n">
-        <v>1950.862128003861</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W23" t="n">
-        <v>1588.327197861462</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X23" t="n">
-        <v>1588.327197861462</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y23" t="n">
-        <v>1588.327197861462</v>
+        <v>2149.154018236569</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.3170860732707</v>
       </c>
       <c r="E24" t="n">
-        <v>473.289076130142</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F24" t="n">
         <v>338.5952780800163</v>
@@ -6066,25 +6068,25 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J24" t="n">
-        <v>50.85391747321462</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K24" t="n">
-        <v>251.6973914949266</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="L24" t="n">
-        <v>661.4480243753524</v>
+        <v>477.8506509775798</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N24" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O24" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P24" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.695873660731</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.824222804538</v>
+        <v>271.5824667420745</v>
       </c>
       <c r="C25" t="n">
-        <v>700.824222804538</v>
+        <v>203.9258106454519</v>
       </c>
       <c r="D25" t="n">
-        <v>547.7523296323006</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E25" t="n">
-        <v>529.9152385560826</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F25" t="n">
-        <v>377.4345835818597</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G25" t="n">
-        <v>208.6878956591448</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H25" t="n">
         <v>50.85391747321462</v>
@@ -6151,46 +6153,46 @@
         <v>104.1644935890949</v>
       </c>
       <c r="L25" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M25" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N25" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O25" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P25" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="W25" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="X25" t="n">
-        <v>700.824222804538</v>
+        <v>493.6176255497975</v>
       </c>
       <c r="Y25" t="n">
-        <v>700.824222804538</v>
+        <v>271.5824667420745</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1614.548551496907</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="C26" t="n">
-        <v>1232.614792829714</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="D26" t="n">
-        <v>859.7908280569375</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="E26" t="n">
-        <v>465.0051081630443</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F26" t="n">
-        <v>50.85391747321459</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G26" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H26" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J26" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532642</v>
       </c>
       <c r="K26" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481641</v>
       </c>
       <c r="L26" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907126</v>
       </c>
       <c r="M26" t="n">
-        <v>1310.379159876956</v>
+        <v>1310.379159876957</v>
       </c>
       <c r="N26" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O26" t="n">
-        <v>2124.896977382889</v>
+        <v>2124.89697738289</v>
       </c>
       <c r="P26" t="n">
-        <v>2407.429665198534</v>
+        <v>2407.429665198536</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R26" t="n">
-        <v>2524.008714142667</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S26" t="n">
-        <v>2345.571365118984</v>
+        <v>2451.805567510693</v>
       </c>
       <c r="T26" t="n">
-        <v>2345.571365118984</v>
+        <v>2229.135500861209</v>
       </c>
       <c r="U26" t="n">
-        <v>2345.571365118984</v>
+        <v>1974.281029308398</v>
       </c>
       <c r="V26" t="n">
-        <v>2008.592091014926</v>
+        <v>1637.301755204339</v>
       </c>
       <c r="W26" t="n">
-        <v>2008.592091014926</v>
+        <v>1274.76682506194</v>
       </c>
       <c r="X26" t="n">
-        <v>2008.592091014926</v>
+        <v>1274.76682506194</v>
       </c>
       <c r="Y26" t="n">
-        <v>2008.592091014926</v>
+        <v>1274.76682506194</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>920.8593958421031</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C27" t="n">
-        <v>759.1557230830579</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D27" t="n">
-        <v>620.3170860732699</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E27" t="n">
-        <v>473.2890761301412</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F27" t="n">
-        <v>338.5952780800155</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G27" t="n">
         <v>210.0732042050868</v>
@@ -6300,55 +6302,55 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I27" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J27" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K27" t="n">
-        <v>68.10001809715374</v>
+        <v>251.697391494926</v>
       </c>
       <c r="L27" t="n">
-        <v>477.8506509775794</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.032071547364</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O27" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P27" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.69587366073</v>
       </c>
       <c r="R27" t="n">
-        <v>2495.728130619191</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S27" t="n">
         <v>2346.762917934841</v>
       </c>
       <c r="T27" t="n">
-        <v>2158.909856151445</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U27" t="n">
         <v>1940.428644414347</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.03302186268</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W27" t="n">
-        <v>1470.71715309599</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X27" t="n">
-        <v>1272.800164973785</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.278838623364</v>
+        <v>1080.278838623365</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>541.3147209700417</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C28" t="n">
-        <v>541.3147209700417</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D28" t="n">
-        <v>524.0902746088335</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E28" t="n">
-        <v>372.0812603701523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F28" t="n">
-        <v>219.6006053959295</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G28" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H28" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I28" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J28" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K28" t="n">
-        <v>104.1644935890948</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L28" t="n">
-        <v>229.9889654324848</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M28" t="n">
-        <v>374.5706761520456</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N28" t="n">
-        <v>518.9490144159676</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O28" t="n">
-        <v>641.3872247924077</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P28" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q28" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R28" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T28" t="n">
-        <v>724.8700896544215</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U28" t="n">
-        <v>724.8700896544215</v>
+        <v>437.6892898185817</v>
       </c>
       <c r="V28" t="n">
-        <v>724.8700896544215</v>
+        <v>176.9539853770043</v>
       </c>
       <c r="W28" t="n">
-        <v>724.8700896544215</v>
+        <v>176.9539853770043</v>
       </c>
       <c r="X28" t="n">
-        <v>724.8700896544215</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y28" t="n">
-        <v>724.8700896544215</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1720.995176773092</v>
+        <v>1925.982267493228</v>
       </c>
       <c r="C29" t="n">
-        <v>1720.995176773092</v>
+        <v>1544.048508826035</v>
       </c>
       <c r="D29" t="n">
-        <v>1348.171212000316</v>
+        <v>1171.224544053259</v>
       </c>
       <c r="E29" t="n">
-        <v>953.3854921064224</v>
+        <v>1171.224544053259</v>
       </c>
       <c r="F29" t="n">
-        <v>953.3854921064224</v>
+        <v>757.0733533634289</v>
       </c>
       <c r="G29" t="n">
-        <v>537.6673147255457</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H29" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I29" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J29" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K29" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L29" t="n">
-        <v>850.7433998907118</v>
+        <v>850.7433998907121</v>
       </c>
       <c r="M29" t="n">
         <v>1310.379159876956</v>
       </c>
       <c r="N29" t="n">
-        <v>1756.181478599932</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O29" t="n">
         <v>2124.896977382889</v>
@@ -6482,31 +6484,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R29" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S29" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T29" t="n">
-        <v>2253.622605463969</v>
+        <v>2320.025807011247</v>
       </c>
       <c r="U29" t="n">
-        <v>2057.974450877151</v>
+        <v>2320.025807011247</v>
       </c>
       <c r="V29" t="n">
-        <v>1720.995176773092</v>
+        <v>2320.025807011247</v>
       </c>
       <c r="W29" t="n">
-        <v>1720.995176773092</v>
+        <v>2320.025807011247</v>
       </c>
       <c r="X29" t="n">
-        <v>1720.995176773092</v>
+        <v>2320.025807011247</v>
       </c>
       <c r="Y29" t="n">
-        <v>1720.995176773092</v>
+        <v>2320.025807011247</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>920.8593958421031</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C30" t="n">
-        <v>759.1557230830579</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D30" t="n">
-        <v>620.3170860732699</v>
+        <v>620.3170860732707</v>
       </c>
       <c r="E30" t="n">
-        <v>473.2890761301412</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F30" t="n">
-        <v>338.5952780800155</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G30" t="n">
-        <v>210.073204205086</v>
+        <v>210.0732042050868</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1289883137692</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I30" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J30" t="n">
-        <v>50.8539174732146</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K30" t="n">
-        <v>313.014426141483</v>
+        <v>392.3832078845234</v>
       </c>
       <c r="L30" t="n">
-        <v>722.7650590219087</v>
+        <v>802.1338407649491</v>
       </c>
       <c r="M30" t="n">
-        <v>1259.061235803009</v>
+        <v>1338.430017546049</v>
       </c>
       <c r="N30" t="n">
-        <v>1578.032071547364</v>
+        <v>1902.315261334734</v>
       </c>
       <c r="O30" t="n">
-        <v>2018.368674122672</v>
+        <v>2342.651863910041</v>
       </c>
       <c r="P30" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R30" t="n">
-        <v>2495.728130619191</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S30" t="n">
         <v>2346.762917934841</v>
       </c>
       <c r="T30" t="n">
-        <v>2158.909856151445</v>
+        <v>2158.909856151446</v>
       </c>
       <c r="U30" t="n">
         <v>1940.428644414347</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.03302186268</v>
+        <v>1712.033021862681</v>
       </c>
       <c r="W30" t="n">
-        <v>1470.71715309599</v>
+        <v>1470.717153095991</v>
       </c>
       <c r="X30" t="n">
-        <v>1272.800164973785</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.278838623364</v>
+        <v>1080.278838623365</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1984.960650427322</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="C31" t="n">
-        <v>1984.960650427322</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="D31" t="n">
-        <v>1984.960650427322</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="E31" t="n">
-        <v>1984.960650427322</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="F31" t="n">
-        <v>1984.960650427322</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="G31" t="n">
-        <v>1868.679701479523</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="H31" t="n">
-        <v>1868.679701479523</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="I31" t="n">
-        <v>1868.679701479523</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="J31" t="n">
-        <v>1868.679701479523</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="K31" t="n">
-        <v>1921.990277595403</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L31" t="n">
-        <v>2047.814749438793</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M31" t="n">
-        <v>2192.396460158354</v>
+        <v>2192.396460158355</v>
       </c>
       <c r="N31" t="n">
-        <v>2336.774798422276</v>
+        <v>2336.774798422277</v>
       </c>
       <c r="O31" t="n">
-        <v>2459.213008798716</v>
+        <v>2459.213008798718</v>
       </c>
       <c r="P31" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q31" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R31" t="n">
-        <v>2400.955531082982</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S31" t="n">
-        <v>2400.955531082982</v>
+        <v>2388.300013286645</v>
       </c>
       <c r="T31" t="n">
-        <v>2168.516019111702</v>
+        <v>2155.860501315364</v>
       </c>
       <c r="U31" t="n">
-        <v>2168.516019111702</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="V31" t="n">
-        <v>2168.516019111702</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="W31" t="n">
-        <v>2168.516019111702</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="X31" t="n">
-        <v>2168.516019111702</v>
+        <v>1868.679701479524</v>
       </c>
       <c r="Y31" t="n">
-        <v>2168.516019111702</v>
+        <v>1868.679701479524</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1977.203076502887</v>
+        <v>1755.11047871855</v>
       </c>
       <c r="C32" t="n">
-        <v>1977.203076502887</v>
+        <v>1373.176720051357</v>
       </c>
       <c r="D32" t="n">
-        <v>1604.379111730111</v>
+        <v>1000.352755278581</v>
       </c>
       <c r="E32" t="n">
-        <v>1209.593391836218</v>
+        <v>605.5670353846874</v>
       </c>
       <c r="F32" t="n">
-        <v>795.442201146388</v>
+        <v>191.4158446948578</v>
       </c>
       <c r="G32" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H32" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I32" t="n">
-        <v>50.85391747321459</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J32" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K32" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481635</v>
       </c>
       <c r="L32" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M32" t="n">
         <v>1310.379159876956</v>
@@ -6716,34 +6718,34 @@
         <v>2124.896977382889</v>
       </c>
       <c r="P32" t="n">
-        <v>2407.429665198534</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="W32" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="X32" t="n">
-        <v>2371.246616020906</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Y32" t="n">
-        <v>2371.246616020906</v>
+        <v>2149.154018236569</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I33" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J33" t="n">
-        <v>50.8539174732146</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K33" t="n">
-        <v>313.014426141483</v>
+        <v>313.0144261414831</v>
       </c>
       <c r="L33" t="n">
-        <v>722.7650590219087</v>
+        <v>722.7650590219089</v>
       </c>
       <c r="M33" t="n">
         <v>1259.061235803009</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.032071547364</v>
+        <v>1822.946479591694</v>
       </c>
       <c r="O33" t="n">
-        <v>2018.368674122672</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P33" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q33" t="n">
         <v>2542.69587366073</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J34" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K34" t="n">
-        <v>1921.990277595403</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L34" t="n">
-        <v>2047.814749438793</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M34" t="n">
-        <v>2192.396460158354</v>
+        <v>374.5706761520457</v>
       </c>
       <c r="N34" t="n">
-        <v>2336.774798422276</v>
+        <v>518.9490144159678</v>
       </c>
       <c r="O34" t="n">
-        <v>2459.213008798716</v>
+        <v>641.3872247924079</v>
       </c>
       <c r="P34" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="Q34" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="R34" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="S34" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="T34" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="U34" t="n">
-        <v>2415.571407403701</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="V34" t="n">
-        <v>2154.836102962124</v>
+        <v>724.8700896544217</v>
       </c>
       <c r="W34" t="n">
-        <v>1868.679701479523</v>
+        <v>438.7136881718208</v>
       </c>
       <c r="X34" t="n">
-        <v>1868.679701479523</v>
+        <v>438.7136881718208</v>
       </c>
       <c r="Y34" t="n">
-        <v>1868.679701479523</v>
+        <v>216.6785293640979</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>818.4636021398842</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="C35" t="n">
-        <v>818.4636021398842</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="D35" t="n">
-        <v>445.6396373671078</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="E35" t="n">
-        <v>50.85391747321461</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="F35" t="n">
-        <v>50.85391747321461</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G35" t="n">
-        <v>50.85391747321461</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H35" t="n">
         <v>50.85391747321461</v>
@@ -6935,13 +6937,13 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J35" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K35" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L35" t="n">
-        <v>850.7433998907118</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M35" t="n">
         <v>1310.379159876956</v>
@@ -6962,25 +6964,25 @@
         <v>2476.292672113453</v>
       </c>
       <c r="S35" t="n">
-        <v>2297.855323089771</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="T35" t="n">
-        <v>2075.185256440287</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="U35" t="n">
-        <v>1820.330784887475</v>
+        <v>2347.700317881286</v>
       </c>
       <c r="V35" t="n">
-        <v>1483.351510783417</v>
+        <v>2347.700317881286</v>
       </c>
       <c r="W35" t="n">
-        <v>1120.816580641018</v>
+        <v>1985.165387738886</v>
       </c>
       <c r="X35" t="n">
-        <v>818.4636021398842</v>
+        <v>1603.13524726038</v>
       </c>
       <c r="Y35" t="n">
-        <v>818.4636021398842</v>
+        <v>1209.593391836218</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421039</v>
       </c>
       <c r="C36" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830587</v>
       </c>
       <c r="D36" t="n">
         <v>620.3170860732707</v>
@@ -7002,7 +7004,7 @@
         <v>473.2890761301419</v>
       </c>
       <c r="F36" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800163</v>
       </c>
       <c r="G36" t="n">
         <v>210.0732042050868</v>
@@ -7014,25 +7016,25 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J36" t="n">
-        <v>130.2226992162549</v>
+        <v>68.10001809715357</v>
       </c>
       <c r="K36" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715357</v>
       </c>
       <c r="L36" t="n">
-        <v>802.133840764949</v>
+        <v>477.8506509775793</v>
       </c>
       <c r="M36" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N36" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547364</v>
       </c>
       <c r="O36" t="n">
-        <v>2201.966047520444</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P36" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q36" t="n">
         <v>2542.69587366073</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.85391747321461</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="C37" t="n">
-        <v>50.85391747321461</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="D37" t="n">
-        <v>50.85391747321461</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="E37" t="n">
-        <v>50.85391747321461</v>
+        <v>2007.678338360377</v>
       </c>
       <c r="F37" t="n">
-        <v>50.85391747321461</v>
+        <v>2007.678338360377</v>
       </c>
       <c r="G37" t="n">
-        <v>50.85391747321461</v>
+        <v>2007.678338360377</v>
       </c>
       <c r="H37" t="n">
-        <v>50.85391747321461</v>
+        <v>2007.678338360377</v>
       </c>
       <c r="I37" t="n">
-        <v>50.85391747321461</v>
+        <v>1868.679701479523</v>
       </c>
       <c r="J37" t="n">
-        <v>50.85391747321461</v>
+        <v>1868.679701479523</v>
       </c>
       <c r="K37" t="n">
-        <v>104.1644935890949</v>
+        <v>1921.990277595404</v>
       </c>
       <c r="L37" t="n">
-        <v>229.9889654324848</v>
+        <v>2047.814749438794</v>
       </c>
       <c r="M37" t="n">
-        <v>374.5706761520456</v>
+        <v>2192.396460158354</v>
       </c>
       <c r="N37" t="n">
-        <v>518.9490144159676</v>
+        <v>2336.774798422276</v>
       </c>
       <c r="O37" t="n">
-        <v>641.3872247924077</v>
+        <v>2459.213008798717</v>
       </c>
       <c r="P37" t="n">
-        <v>724.8700896544215</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q37" t="n">
-        <v>724.8700896544215</v>
+        <v>2518.650006810847</v>
       </c>
       <c r="R37" t="n">
-        <v>724.8700896544215</v>
+        <v>2376.909664233099</v>
       </c>
       <c r="S37" t="n">
-        <v>724.8700896544215</v>
+        <v>2166.215877818488</v>
       </c>
       <c r="T37" t="n">
-        <v>724.8700896544215</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="U37" t="n">
-        <v>437.6892898185815</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="V37" t="n">
-        <v>437.6892898185815</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="W37" t="n">
-        <v>437.6892898185815</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="X37" t="n">
-        <v>272.8890762809375</v>
+        <v>2159.687352599059</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.85391747321461</v>
+        <v>2159.687352599059</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1418.131204614491</v>
+        <v>1657.442764105007</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.197445947298</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="D38" t="n">
-        <v>663.3734811745214</v>
+        <v>1275.509005437814</v>
       </c>
       <c r="E38" t="n">
-        <v>268.5877612806283</v>
+        <v>880.7232855439211</v>
       </c>
       <c r="F38" t="n">
-        <v>208.797208433249</v>
+        <v>466.5720948540913</v>
       </c>
       <c r="G38" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H38" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I38" t="n">
         <v>50.85391747321461</v>
@@ -7208,16 +7210,16 @@
         <v>2542.69587366073</v>
       </c>
       <c r="V38" t="n">
-        <v>2205.716599556672</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="W38" t="n">
-        <v>2205.716599556672</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="X38" t="n">
-        <v>2205.716599556672</v>
+        <v>2445.028159047188</v>
       </c>
       <c r="Y38" t="n">
-        <v>1812.17474413251</v>
+        <v>2051.486303623026</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7256,10 @@
         <v>50.85391747321461</v>
       </c>
       <c r="K39" t="n">
-        <v>251.6973914949262</v>
+        <v>251.6973914949261</v>
       </c>
       <c r="L39" t="n">
-        <v>661.4480243753519</v>
+        <v>661.4480243753518</v>
       </c>
       <c r="M39" t="n">
         <v>1197.744201156452</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2038.295671017843</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J40" t="n">
-        <v>1868.679701479523</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K40" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L40" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M40" t="n">
-        <v>2192.396460158354</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N40" t="n">
-        <v>2336.774798422276</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O40" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P40" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q40" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R40" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T40" t="n">
-        <v>2542.69587366073</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U40" t="n">
-        <v>2542.69587366073</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V40" t="n">
-        <v>2542.69587366073</v>
+        <v>176.9539853770041</v>
       </c>
       <c r="W40" t="n">
-        <v>2542.69587366073</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X40" t="n">
-        <v>2443.886198509946</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y40" t="n">
-        <v>2221.851039702223</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>774.5097436594044</v>
+        <v>1200.397360807077</v>
       </c>
       <c r="C41" t="n">
-        <v>774.5097436594044</v>
+        <v>818.4636021398842</v>
       </c>
       <c r="D41" t="n">
-        <v>774.5097436594044</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E41" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F41" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G41" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H41" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J41" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K41" t="n">
-        <v>443.1860302481633</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L41" t="n">
-        <v>850.7433998907125</v>
+        <v>850.743399890712</v>
       </c>
       <c r="M41" t="n">
-        <v>1310.379159876957</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N41" t="n">
-        <v>1756.181478599933</v>
+        <v>1756.181478599932</v>
       </c>
       <c r="O41" t="n">
         <v>2124.896977382889</v>
@@ -7430,31 +7432,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R41" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S41" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T41" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="U41" t="n">
-        <v>2287.84140210792</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="V41" t="n">
-        <v>1950.862128003861</v>
+        <v>2350.517685891657</v>
       </c>
       <c r="W41" t="n">
-        <v>1588.327197861462</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="X41" t="n">
-        <v>1206.297057382955</v>
+        <v>1987.982755749258</v>
       </c>
       <c r="Y41" t="n">
-        <v>812.7552019587935</v>
+        <v>1594.440900325096</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.3170860732707</v>
       </c>
       <c r="E42" t="n">
-        <v>473.289076130142</v>
+        <v>473.2890761301419</v>
       </c>
       <c r="F42" t="n">
         <v>338.5952780800163</v>
@@ -7485,28 +7487,28 @@
         <v>112.1289883137699</v>
       </c>
       <c r="I42" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J42" t="n">
-        <v>130.2226992162549</v>
+        <v>68.10001809715453</v>
       </c>
       <c r="K42" t="n">
-        <v>392.3832078845233</v>
+        <v>68.10001809715453</v>
       </c>
       <c r="L42" t="n">
-        <v>802.133840764949</v>
+        <v>477.8506509775802</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.146827758681</v>
       </c>
       <c r="N42" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O42" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P42" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q42" t="n">
         <v>2542.695873660731</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D43" t="n">
-        <v>2389.623980488494</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E43" t="n">
-        <v>2237.614966249812</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F43" t="n">
-        <v>2085.134311275589</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G43" t="n">
-        <v>1916.387623352874</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H43" t="n">
-        <v>1916.387623352874</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I43" t="n">
-        <v>1916.387623352874</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J43" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K43" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L43" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M43" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N43" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O43" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q43" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R43" t="n">
-        <v>2542.695873660731</v>
+        <v>598.7700217506319</v>
       </c>
       <c r="S43" t="n">
-        <v>2542.695873660731</v>
+        <v>598.7700217506319</v>
       </c>
       <c r="T43" t="n">
-        <v>2542.695873660731</v>
+        <v>598.7700217506319</v>
       </c>
       <c r="U43" t="n">
-        <v>2542.695873660731</v>
+        <v>311.589221914792</v>
       </c>
       <c r="V43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="W43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y43" t="n">
-        <v>2542.695873660731</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.266728877783</v>
+        <v>1745.269858491375</v>
       </c>
       <c r="C44" t="n">
-        <v>1648.332970210591</v>
+        <v>1745.269858491375</v>
       </c>
       <c r="D44" t="n">
-        <v>1275.509005437814</v>
+        <v>1372.445893718599</v>
       </c>
       <c r="E44" t="n">
-        <v>880.7232855439211</v>
+        <v>977.6601738247057</v>
       </c>
       <c r="F44" t="n">
-        <v>466.5720948540913</v>
+        <v>563.508983134876</v>
       </c>
       <c r="G44" t="n">
-        <v>50.85391747321462</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J44" t="n">
         <v>154.9459054532635</v>
@@ -7667,31 +7669,31 @@
         <v>2407.429665198535</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R44" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S44" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="T44" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="U44" t="n">
-        <v>2424.310268395803</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.310268395803</v>
+        <v>2139.313398009394</v>
       </c>
       <c r="W44" t="n">
-        <v>2424.310268395803</v>
+        <v>2139.313398009394</v>
       </c>
       <c r="X44" t="n">
-        <v>2424.310268395803</v>
+        <v>2139.313398009394</v>
       </c>
       <c r="Y44" t="n">
-        <v>2424.310268395803</v>
+        <v>2139.313398009394</v>
       </c>
     </row>
     <row r="45">
@@ -7701,70 +7703,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.8593958421037</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C45" t="n">
-        <v>759.1557230830585</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D45" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E45" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F45" t="n">
-        <v>338.5952780800162</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050872</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137702</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J45" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K45" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715419</v>
       </c>
       <c r="L45" t="n">
-        <v>722.7650590219087</v>
+        <v>477.8506509775799</v>
       </c>
       <c r="M45" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N45" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O45" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P45" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q45" t="n">
-        <v>2542.695873660731</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.728130619192</v>
+        <v>2495.728130619191</v>
       </c>
       <c r="S45" t="n">
         <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W45" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X45" t="n">
         <v>1272.800164973786</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="C46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="D46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="E46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K46" t="n">
-        <v>1921.990277595404</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L46" t="n">
-        <v>2047.814749438794</v>
+        <v>229.9889654324848</v>
       </c>
       <c r="M46" t="n">
-        <v>2192.396460158355</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N46" t="n">
-        <v>2336.774798422277</v>
+        <v>518.9490144159676</v>
       </c>
       <c r="O46" t="n">
-        <v>2459.213008798717</v>
+        <v>641.3872247924077</v>
       </c>
       <c r="P46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="Q46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="T46" t="n">
-        <v>2542.695873660731</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="U46" t="n">
-        <v>2255.515073824891</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V46" t="n">
-        <v>1994.779769383313</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="X46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y46" t="n">
-        <v>1868.679701479524</v>
+        <v>50.85391747321461</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8073,7 +8075,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>257.4361490398531</v>
       </c>
       <c r="Q3" t="n">
         <v>273.1004740566038</v>
@@ -8295,7 +8297,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
@@ -8307,13 +8309,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
-        <v>512.0210150597484</v>
+        <v>355.4555648676831</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8532,10 +8534,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863134</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8550,7 +8552,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8766,13 +8768,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>420.1560502616115</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8784,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>86.44282166891929</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9005,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>281.8684094834669</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,7 +9023,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>271.8947139899012</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>87.64858173562192</v>
@@ -9243,16 +9245,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>419.3422659459104</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>295.5863090836201</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>83.74785933339987</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>281.8684094834668</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9492,7 +9494,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>369.914129817731</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9714,13 +9716,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>83.74785933339989</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>281.868409483467</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>419.3422659459101</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9735,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236965</v>
       </c>
       <c r="K26" t="n">
         <v>421.3890363425141</v>
@@ -9951,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>83.74785933339989</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K27" t="n">
-        <v>96.41651716248428</v>
+        <v>281.8684094834663</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9972,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>83.74785933339989</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,16 +10202,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>375.7567956927517</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>271.8947139899017</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>83.74785933339989</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,16 +10439,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>375.7567956927517</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599032</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562189</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10598,7 +10600,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415686</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10662,10 +10664,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>101.1681629939443</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193965</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10676,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>481.0382014046023</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10902,7 +10904,7 @@
         <v>83.74785933339989</v>
       </c>
       <c r="K39" t="n">
-        <v>281.8684094834666</v>
+        <v>281.8684094834665</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10920,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.64858173562195</v>
+        <v>87.64858173562193</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11063,7 +11065,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155862</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11136,16 +11138,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>101.1681629939453</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>78.99621350193968</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>463.309697632983</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11157,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11315,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578765</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11376,7 +11378,7 @@
         <v>83.74785933339989</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248475</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,10 +11393,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>352.065200599033</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22553,19 +22555,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>188.8746987952167</v>
       </c>
       <c r="H2" t="n">
-        <v>12.99761588765421</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>77.01947232901809</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>49.09433375120719</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22717,16 +22719,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>38.64046520703948</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22790,16 +22792,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>64.3823500209412</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>60.355414298109</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -22847,10 +22849,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.325654449964</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22875,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>32.54502902440817</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22926,7 +22928,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22954,16 +22956,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>38.64046520703948</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>31.84775173961611</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23072,22 +23074,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>113.0159067537333</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.325654449964</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,13 +23114,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23154,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>101.5979585925478</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -23255,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>255.0202015807894</v>
+        <v>364.7435140675288</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>142.4358999854598</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>120.5065807525132</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>284.3089918374816</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>378.1144210805207</v>
@@ -23507,10 +23509,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
         <v>156.363858050434</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.91717399855085</v>
       </c>
       <c r="T14" t="n">
-        <v>67.48580117023621</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,22 +23661,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4358999854598</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>219.8632941134737</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>98.6563435303554</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23747,10 +23749,10 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>190.4985026873246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,19 +23940,19 @@
         <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>108.9146673963265</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>105.2760496268156</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23966,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>298.1591650168349</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>154.7409352030071</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24136,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>10.87680538018921</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.2556384040709</v>
@@ -24172,7 +24174,7 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>208.5868485504649</v>
@@ -24184,16 +24186,16 @@
         <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
-        <v>103.0867178691196</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.5204942082815</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>272.4046876576413</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S23" t="n">
         <v>176.6529755334452</v>
@@ -24260,19 +24262,19 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,28 +24366,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>100.9397203072801</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.8302039308385</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I25" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J25" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R25" t="n">
         <v>140.32293915197</v>
@@ -24427,10 +24429,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>325.5814052293737</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>47.23888160892184</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>86.67157244490781</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.305926837283</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>134.4889723429188</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H28" t="n">
         <v>156.2556384040709</v>
@@ -24622,7 +24624,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J28" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R28" t="n">
         <v>140.32293915197</v>
@@ -24655,16 +24657,16 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>104.1008722388262</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>37.98515930512961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S29" t="n">
         <v>176.6529755334452</v>
@@ -24734,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>58.61425379633297</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24850,7 +24852,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>51.9410815851664</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H31" t="n">
         <v>156.2556384040709</v>
@@ -24859,7 +24861,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J31" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S31" t="n">
-        <v>208.5868485504649</v>
+        <v>55.7349467801192</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>272.4046876576412</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I32" t="n">
         <v>156.363858050434</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S32" t="n">
         <v>176.6529755334452</v>
@@ -24980,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>208.4750740102965</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>17.55344922556156</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25096,7 +25098,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J34" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.80540818138467</v>
+        <v>23.80540818138465</v>
       </c>
       <c r="R34" t="n">
         <v>140.32293915197</v>
@@ -25129,10 +25131,10 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U34" t="n">
-        <v>158.455770243023</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,19 +25159,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>156.363858050434</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>124.9994961474372</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>78.88039035759942</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25330,10 +25332,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I37" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34362796447566</v>
+        <v>47.34362796447564</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.1151168515673</v>
+        <v>223.6518768843322</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
@@ -25375,10 +25377,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>65.78772806131047</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>350.8170314640258</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180445</v>
       </c>
       <c r="S38" t="n">
         <v>176.6529755334452</v>
@@ -25448,13 +25450,13 @@
         <v>252.305926837283</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>281.5188016063149</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25603,19 +25605,19 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>158.4557702430233</v>
       </c>
       <c r="X40" t="n">
-        <v>131.1183610643012</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.2401004064438</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>411.5609956070679</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I41" t="n">
         <v>156.363858050434</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.73916953180446</v>
+        <v>65.73916953180445</v>
       </c>
       <c r="S41" t="n">
         <v>176.6529755334452</v>
@@ -25682,16 +25684,16 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>62.0495209459005</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H43" t="n">
         <v>156.2556384040709</v>
@@ -25807,7 +25809,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1127853098585234</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>23.80540818138467</v>
       </c>
       <c r="R43" t="n">
-        <v>140.32293915197</v>
+        <v>15.48387192721839</v>
       </c>
       <c r="S43" t="n">
         <v>208.5868485504649</v>
@@ -25840,10 +25842,10 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.6138858313969</v>
       </c>
       <c r="H44" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>156.363858050434</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>176.6529755334452</v>
@@ -25919,10 +25921,10 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U44" t="n">
-        <v>135.1041776250043</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>158.4557702430233</v>
       </c>
       <c r="W46" t="n">
-        <v>158.4557702430233</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>597967.3112507487</v>
+        <v>597967.3112507488</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>597967.3112507488</v>
+        <v>597967.3112507487</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680351.8122634811</v>
+        <v>680351.8122634809</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680351.8122634807</v>
+        <v>680351.8122634809</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680351.812263481</v>
+        <v>680351.8122634811</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>680351.8122634809</v>
+        <v>680351.8122634807</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680351.8122634809</v>
+        <v>680351.812263481</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>680351.8122634809</v>
+        <v>680351.812263481</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>680351.8122634809</v>
+        <v>680351.812263481</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>680351.8122634807</v>
+        <v>680351.8122634809</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680351.8122634806</v>
+        <v>680351.8122634807</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>680351.8122634811</v>
+        <v>680351.8122634809</v>
       </c>
     </row>
   </sheetData>
@@ -26317,25 +26319,25 @@
         <v>188207.2044394288</v>
       </c>
       <c r="D2" t="n">
-        <v>188207.2044394289</v>
+        <v>188207.2044394288</v>
       </c>
       <c r="E2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="F2" t="n">
+        <v>214591.0511962088</v>
+      </c>
+      <c r="G2" t="n">
+        <v>214591.0511962088</v>
+      </c>
+      <c r="H2" t="n">
         <v>214591.0511962087</v>
       </c>
-      <c r="G2" t="n">
-        <v>214591.0511962087</v>
-      </c>
-      <c r="H2" t="n">
-        <v>214591.0511962091</v>
-      </c>
       <c r="I2" t="n">
-        <v>214591.0511962087</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="J2" t="n">
-        <v>214591.0511962087</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="K2" t="n">
         <v>214591.0511962087</v>
@@ -26344,16 +26346,16 @@
         <v>214591.0511962088</v>
       </c>
       <c r="M2" t="n">
-        <v>214591.0511962087</v>
+        <v>214591.0511962088</v>
       </c>
       <c r="N2" t="n">
         <v>214591.0511962088</v>
       </c>
       <c r="O2" t="n">
-        <v>214591.0511962088</v>
+        <v>214591.0511962087</v>
       </c>
       <c r="P2" t="n">
-        <v>214591.0511962091</v>
+        <v>214591.0511962089</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493011</v>
+        <v>109285.8666493012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>137442.430791777</v>
+        <v>137442.4307917772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689654</v>
+        <v>27504.83665689651</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26482,22 +26484,22 @@
         <v>40720.20246230468</v>
       </c>
       <c r="G5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="H5" t="n">
         <v>40720.20246230468</v>
       </c>
       <c r="I5" t="n">
-        <v>40720.20246230467</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="J5" t="n">
-        <v>40720.20246230466</v>
+        <v>40720.20246230469</v>
       </c>
       <c r="K5" t="n">
-        <v>40720.20246230466</v>
+        <v>40720.20246230469</v>
       </c>
       <c r="L5" t="n">
-        <v>40720.20246230466</v>
+        <v>40720.20246230468</v>
       </c>
       <c r="M5" t="n">
         <v>40720.20246230467</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-65003.6742879856</v>
+        <v>-65003.67428798554</v>
       </c>
       <c r="C6" t="n">
-        <v>111037.5104295418</v>
+        <v>111037.5104295417</v>
       </c>
       <c r="D6" t="n">
         <v>111037.5104295418</v>
       </c>
       <c r="E6" t="n">
-        <v>52767.20654376034</v>
+        <v>52767.20654376032</v>
       </c>
       <c r="F6" t="n">
+        <v>162053.0731930615</v>
+      </c>
+      <c r="G6" t="n">
+        <v>162053.0731930615</v>
+      </c>
+      <c r="H6" t="n">
         <v>162053.0731930614</v>
       </c>
-      <c r="G6" t="n">
-        <v>162053.0731930614</v>
-      </c>
-      <c r="H6" t="n">
-        <v>162053.0731930617</v>
-      </c>
       <c r="I6" t="n">
-        <v>162053.0731930614</v>
+        <v>162053.0731930615</v>
       </c>
       <c r="J6" t="n">
-        <v>24610.64240128431</v>
+        <v>24610.64240128428</v>
       </c>
       <c r="K6" t="n">
         <v>162053.0731930614</v>
@@ -26552,16 +26554,16 @@
         <v>162053.0731930615</v>
       </c>
       <c r="M6" t="n">
-        <v>134548.2365361648</v>
+        <v>134548.236536165</v>
       </c>
       <c r="N6" t="n">
         <v>162053.0731930615</v>
       </c>
       <c r="O6" t="n">
-        <v>162053.0731930615</v>
+        <v>162053.0731930614</v>
       </c>
       <c r="P6" t="n">
-        <v>162053.0731930618</v>
+        <v>162053.0731930616</v>
       </c>
     </row>
   </sheetData>
@@ -26756,25 +26758,25 @@
         <v>95.0103294798887</v>
       </c>
       <c r="I3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988878</v>
       </c>
       <c r="J3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988878</v>
       </c>
       <c r="K3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988878</v>
       </c>
       <c r="L3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988878</v>
       </c>
       <c r="M3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988878</v>
       </c>
       <c r="N3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988865</v>
       </c>
       <c r="O3" t="n">
-        <v>95.01032947988861</v>
+        <v>95.01032947988865</v>
       </c>
       <c r="P3" t="n">
         <v>95.01032947988861</v>
@@ -26793,7 +26795,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649904</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151827</v>
@@ -26802,7 +26804,7 @@
         <v>635.6739684151827</v>
       </c>
       <c r="G4" t="n">
-        <v>635.6739684151826</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="H4" t="n">
         <v>635.6739684151827</v>
@@ -26811,13 +26813,13 @@
         <v>635.6739684151827</v>
       </c>
       <c r="J4" t="n">
-        <v>635.6739684151825</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="K4" t="n">
-        <v>635.6739684151825</v>
+        <v>635.6739684151828</v>
       </c>
       <c r="L4" t="n">
-        <v>635.6739684151825</v>
+        <v>635.6739684151827</v>
       </c>
       <c r="M4" t="n">
         <v>635.6739684151826</v>
@@ -26826,10 +26828,10 @@
         <v>635.6739684151826</v>
       </c>
       <c r="O4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
       <c r="P4" t="n">
-        <v>635.6739684151827</v>
+        <v>635.6739684151826</v>
       </c>
     </row>
   </sheetData>
@@ -27018,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>110.3707671501924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>525.3032012649904</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>110.3707671501923</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>525.30320126499</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H23" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I23" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J23" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K23" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L23" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757809</v>
       </c>
       <c r="M23" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N23" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410153</v>
       </c>
       <c r="O23" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P23" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736626</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R23" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S23" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504386</v>
       </c>
       <c r="T23" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H24" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I24" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689878</v>
       </c>
       <c r="J24" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K24" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L24" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869712</v>
       </c>
       <c r="M24" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653938</v>
       </c>
       <c r="N24" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309363</v>
       </c>
       <c r="O24" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712761</v>
       </c>
       <c r="P24" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806979</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R24" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S24" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133751</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H25" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I25" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302822</v>
       </c>
       <c r="J25" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K25" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L25" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M25" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N25" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O25" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P25" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R25" t="n">
-        <v>7.703624419795556</v>
+        <v>7.703624419795569</v>
       </c>
       <c r="S25" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106182</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497267</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H26" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I26" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J26" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K26" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L26" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757809</v>
       </c>
       <c r="M26" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N26" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410153</v>
       </c>
       <c r="O26" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P26" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736626</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R26" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S26" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504386</v>
       </c>
       <c r="T26" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H27" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I27" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689878</v>
       </c>
       <c r="J27" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K27" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L27" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869712</v>
       </c>
       <c r="M27" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653938</v>
       </c>
       <c r="N27" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309363</v>
       </c>
       <c r="O27" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712761</v>
       </c>
       <c r="P27" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806979</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R27" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S27" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133751</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H28" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I28" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302822</v>
       </c>
       <c r="J28" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K28" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L28" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M28" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N28" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O28" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P28" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R28" t="n">
-        <v>7.703624419795556</v>
+        <v>7.703624419795569</v>
       </c>
       <c r="S28" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106182</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497267</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H29" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I29" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J29" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K29" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L29" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757809</v>
       </c>
       <c r="M29" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N29" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410153</v>
       </c>
       <c r="O29" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P29" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736626</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R29" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S29" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504386</v>
       </c>
       <c r="T29" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H30" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I30" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689878</v>
       </c>
       <c r="J30" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K30" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L30" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869712</v>
       </c>
       <c r="M30" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653938</v>
       </c>
       <c r="N30" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309363</v>
       </c>
       <c r="O30" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712761</v>
       </c>
       <c r="P30" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806979</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R30" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S30" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133751</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H31" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I31" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302822</v>
       </c>
       <c r="J31" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K31" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L31" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M31" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N31" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O31" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P31" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R31" t="n">
-        <v>7.703624419795556</v>
+        <v>7.703624419795569</v>
       </c>
       <c r="S31" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106182</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497267</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H32" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I32" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J32" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K32" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L32" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757809</v>
       </c>
       <c r="M32" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N32" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410153</v>
       </c>
       <c r="O32" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P32" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736626</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R32" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S32" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504386</v>
       </c>
       <c r="T32" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H33" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I33" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689878</v>
       </c>
       <c r="J33" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K33" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L33" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869712</v>
       </c>
       <c r="M33" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653938</v>
       </c>
       <c r="N33" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309363</v>
       </c>
       <c r="O33" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712761</v>
       </c>
       <c r="P33" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806979</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R33" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S33" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133751</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H34" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I34" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302822</v>
       </c>
       <c r="J34" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K34" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L34" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M34" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N34" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O34" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P34" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R34" t="n">
-        <v>7.703624419795556</v>
+        <v>7.703624419795569</v>
       </c>
       <c r="S34" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106182</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497267</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H35" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I35" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J35" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K35" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L35" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757809</v>
       </c>
       <c r="M35" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N35" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410153</v>
       </c>
       <c r="O35" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P35" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736626</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R35" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730076</v>
       </c>
       <c r="S35" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504386</v>
       </c>
       <c r="T35" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H36" t="n">
-        <v>1.973705146365234</v>
+        <v>1.973705146365237</v>
       </c>
       <c r="I36" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689878</v>
       </c>
       <c r="J36" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K36" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472703</v>
       </c>
       <c r="L36" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869712</v>
       </c>
       <c r="M36" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653938</v>
       </c>
       <c r="N36" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309363</v>
       </c>
       <c r="O36" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712761</v>
       </c>
       <c r="P36" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806979</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.08660970927055</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R36" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S36" t="n">
-        <v>3.795931559880453</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.8237216301133751</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.171330102340783</v>
       </c>
       <c r="H37" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I37" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302822</v>
       </c>
       <c r="J37" t="n">
-        <v>12.11303823549334</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K37" t="n">
-        <v>19.90544279922912</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L37" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891969</v>
       </c>
       <c r="M37" t="n">
-        <v>26.85677231511015</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N37" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O37" t="n">
-        <v>24.21673119267719</v>
+        <v>24.21673119267723</v>
       </c>
       <c r="P37" t="n">
-        <v>20.72159710492521</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R37" t="n">
-        <v>7.703624419795556</v>
+        <v>7.703624419795569</v>
       </c>
       <c r="S37" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884372</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106182</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497267</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859843</v>
       </c>
       <c r="H38" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290087</v>
       </c>
       <c r="I38" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J38" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630634</v>
       </c>
       <c r="K38" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850206</v>
       </c>
       <c r="L38" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757801</v>
       </c>
       <c r="M38" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712763</v>
       </c>
       <c r="N38" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410144</v>
       </c>
       <c r="O38" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911392</v>
       </c>
       <c r="P38" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736618</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531186</v>
       </c>
       <c r="R38" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730073</v>
       </c>
       <c r="S38" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504374</v>
       </c>
       <c r="T38" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287873</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680624</v>
       </c>
       <c r="H39" t="n">
         <v>1.973705146365234</v>
       </c>
       <c r="I39" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689869</v>
       </c>
       <c r="J39" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326681</v>
       </c>
       <c r="K39" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472699</v>
       </c>
       <c r="L39" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869706</v>
       </c>
       <c r="M39" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653931</v>
       </c>
       <c r="N39" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309356</v>
       </c>
       <c r="O39" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712755</v>
       </c>
       <c r="P39" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806974</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.08660970927055</v>
+        <v>26.08660970927056</v>
       </c>
       <c r="R39" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S39" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880455</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.823721630113374</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407828</v>
       </c>
       <c r="H40" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448052</v>
       </c>
       <c r="I40" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302815</v>
       </c>
       <c r="J40" t="n">
         <v>12.11303823549334</v>
@@ -34056,34 +34058,34 @@
         <v>19.90544279922912</v>
       </c>
       <c r="L40" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891966</v>
       </c>
       <c r="M40" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511016</v>
       </c>
       <c r="N40" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729454</v>
       </c>
       <c r="O40" t="n">
-        <v>24.21673119267719</v>
+        <v>24.2167311926772</v>
       </c>
       <c r="P40" t="n">
         <v>20.72159710492521</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R40" t="n">
-        <v>7.703624419795556</v>
+        <v>7.70362441979556</v>
       </c>
       <c r="S40" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106172</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3819510732859841</v>
+        <v>0.3819510732859843</v>
       </c>
       <c r="H41" t="n">
-        <v>3.911656429290086</v>
+        <v>3.911656429290087</v>
       </c>
       <c r="I41" t="n">
-        <v>14.72516875285791</v>
+        <v>14.72516875285792</v>
       </c>
       <c r="J41" t="n">
-        <v>32.41761990630632</v>
+        <v>32.41761990630634</v>
       </c>
       <c r="K41" t="n">
-        <v>48.58560883850203</v>
+        <v>48.58560883850206</v>
       </c>
       <c r="L41" t="n">
-        <v>60.27474399757799</v>
+        <v>60.27474399757801</v>
       </c>
       <c r="M41" t="n">
-        <v>67.0672663971276</v>
+        <v>67.06726639712763</v>
       </c>
       <c r="N41" t="n">
-        <v>68.15248488410141</v>
+        <v>68.15248488410144</v>
       </c>
       <c r="O41" t="n">
-        <v>64.35445889911389</v>
+        <v>64.35445889911392</v>
       </c>
       <c r="P41" t="n">
-        <v>54.92504177736616</v>
+        <v>54.92504177736618</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.24641896531184</v>
+        <v>41.24641896531186</v>
       </c>
       <c r="R41" t="n">
-        <v>23.99273410730072</v>
+        <v>23.99273410730073</v>
       </c>
       <c r="S41" t="n">
-        <v>8.703710082504371</v>
+        <v>8.703710082504374</v>
       </c>
       <c r="T41" t="n">
-        <v>1.671990823309396</v>
+        <v>1.671990823309397</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03055608586287872</v>
+        <v>0.03055608586287873</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2043618407680623</v>
+        <v>0.2043618407680624</v>
       </c>
       <c r="H42" t="n">
         <v>1.973705146365234</v>
       </c>
       <c r="I42" t="n">
-        <v>7.036142324689865</v>
+        <v>7.036142324689869</v>
       </c>
       <c r="J42" t="n">
-        <v>19.3077123332668</v>
+        <v>19.30771233326681</v>
       </c>
       <c r="K42" t="n">
-        <v>32.99995566472698</v>
+        <v>32.99995566472699</v>
       </c>
       <c r="L42" t="n">
-        <v>44.37251283869704</v>
+        <v>44.37251283869706</v>
       </c>
       <c r="M42" t="n">
-        <v>51.78062956653929</v>
+        <v>51.78062956653931</v>
       </c>
       <c r="N42" t="n">
-        <v>53.15110875309354</v>
+        <v>53.15110875309356</v>
       </c>
       <c r="O42" t="n">
-        <v>48.62288059712753</v>
+        <v>48.62288059712755</v>
       </c>
       <c r="P42" t="n">
-        <v>39.02414834806972</v>
+        <v>39.02414834806974</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.08660970927055</v>
+        <v>26.08660970927056</v>
       </c>
       <c r="R42" t="n">
-        <v>12.68836060488022</v>
+        <v>12.68836060488023</v>
       </c>
       <c r="S42" t="n">
-        <v>3.795931559880453</v>
+        <v>3.795931559880455</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8237216301133736</v>
+        <v>0.823721630113374</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01344485794526726</v>
+        <v>0.01344485794526727</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1713301023407827</v>
+        <v>0.1713301023407828</v>
       </c>
       <c r="H43" t="n">
-        <v>1.523280364448051</v>
+        <v>1.523280364448052</v>
       </c>
       <c r="I43" t="n">
-        <v>5.152363441302813</v>
+        <v>5.152363441302815</v>
       </c>
       <c r="J43" t="n">
         <v>12.11303823549334</v>
@@ -34293,34 +34295,34 @@
         <v>19.90544279922912</v>
       </c>
       <c r="L43" t="n">
-        <v>25.47211357891965</v>
+        <v>25.47211357891966</v>
       </c>
       <c r="M43" t="n">
-        <v>26.85677231511015</v>
+        <v>26.85677231511016</v>
       </c>
       <c r="N43" t="n">
-        <v>26.21817829729452</v>
+        <v>26.21817829729454</v>
       </c>
       <c r="O43" t="n">
-        <v>24.21673119267719</v>
+        <v>24.2167311926772</v>
       </c>
       <c r="P43" t="n">
         <v>20.72159710492521</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.34655975146318</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R43" t="n">
-        <v>7.703624419795556</v>
+        <v>7.70362441979556</v>
       </c>
       <c r="S43" t="n">
-        <v>2.985816419884367</v>
+        <v>2.985816419884368</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7320468009106169</v>
+        <v>0.7320468009106172</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009345278309497251</v>
+        <v>0.009345278309497254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
@@ -34793,7 +34795,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>148.5819430157098</v>
       </c>
       <c r="Q3" t="n">
         <v>159.3652826117113</v>
@@ -35015,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
@@ -35027,13 +35029,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
-        <v>396.1615664486372</v>
+        <v>239.596116256572</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646691</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35270,7 +35272,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L12" t="n">
-        <v>413.8895281620462</v>
+        <v>351.9531295291608</v>
       </c>
       <c r="M12" t="n">
         <v>541.7133098798994</v>
@@ -35504,10 +35506,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>16.61276399284572</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.8085946144125</v>
+        <v>202.8721959815272</v>
       </c>
       <c r="L15" t="n">
         <v>413.8895281620462</v>
@@ -35741,7 +35743,7 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P15" t="n">
-        <v>202.0646563138277</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>80.17048660913161</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>413.8895281620462</v>
+        <v>351.1393452134597</v>
       </c>
       <c r="M18" t="n">
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>242.0222767690054</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O18" t="n">
         <v>444.7844470457648</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>80.17048660913161</v>
       </c>
       <c r="K21" t="n">
-        <v>202.8721959815272</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36212,7 +36214,7 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>444.7844470457648</v>
+        <v>302.6775618037474</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K23" t="n">
         <v>291.1516412069695</v>
@@ -36364,19 +36366,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M23" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N23" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O23" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P23" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q23" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K24" t="n">
-        <v>202.8721959815273</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>413.8895281620462</v>
+        <v>351.1393452134595</v>
       </c>
       <c r="M24" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N24" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O24" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L25" t="n">
         <v>127.0954261044343</v>
@@ -36528,10 +36530,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O25" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P25" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020703</v>
       </c>
       <c r="K26" t="n">
         <v>291.1516412069695</v>
@@ -36601,19 +36603,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M26" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N26" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O26" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P26" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q26" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>17.42030366054458</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L27" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M27" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N27" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O27" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q27" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L28" t="n">
         <v>127.0954261044343</v>
@@ -36765,10 +36767,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O28" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P28" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K29" t="n">
         <v>291.1516412069695</v>
@@ -36838,19 +36840,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M29" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N29" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O29" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P29" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q29" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>80.17048660913163</v>
       </c>
       <c r="K30" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L30" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M30" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N30" t="n">
-        <v>322.1927633781369</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O30" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P30" t="n">
-        <v>344.1715415558447</v>
+        <v>202.0646563138281</v>
       </c>
       <c r="Q30" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L31" t="n">
         <v>127.0954261044343</v>
@@ -37002,10 +37004,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O31" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P31" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K32" t="n">
         <v>291.1516412069695</v>
@@ -37075,19 +37077,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M32" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N32" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O32" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P32" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q32" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.8085946144125</v>
+        <v>264.8085946144126</v>
       </c>
       <c r="L33" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M33" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N33" t="n">
-        <v>322.1927633781369</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O33" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P33" t="n">
-        <v>344.1715415558447</v>
+        <v>282.2351429229585</v>
       </c>
       <c r="Q33" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L34" t="n">
         <v>127.0954261044343</v>
@@ -37239,10 +37241,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O34" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P34" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K35" t="n">
         <v>291.1516412069695</v>
@@ -37312,19 +37314,19 @@
         <v>411.674110750049</v>
       </c>
       <c r="M35" t="n">
-        <v>464.2785454406508</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N35" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O35" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605621</v>
       </c>
       <c r="P35" t="n">
-        <v>285.3865533491371</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q35" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>80.1704866091316</v>
+        <v>17.4203036605444</v>
       </c>
       <c r="K36" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M36" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N36" t="n">
-        <v>427.4741690899875</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O36" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P36" t="n">
-        <v>344.1715415558447</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>53.84906678371742</v>
+        <v>53.84906678371745</v>
       </c>
       <c r="L37" t="n">
         <v>127.0954261044343</v>
@@ -37476,10 +37478,10 @@
         <v>145.8367053170929</v>
       </c>
       <c r="O37" t="n">
-        <v>123.6749599762021</v>
+        <v>123.6749599762022</v>
       </c>
       <c r="P37" t="n">
-        <v>84.32612612324621</v>
+        <v>84.32612612324624</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37552,10 +37554,10 @@
         <v>464.2785454406508</v>
       </c>
       <c r="N38" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O38" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P38" t="n">
         <v>285.3865533491371</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>202.8721959815269</v>
+        <v>202.8721959815267</v>
       </c>
       <c r="L39" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M39" t="n">
-        <v>541.7133098798993</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N39" t="n">
         <v>569.5810543320048</v>
@@ -37783,16 +37785,16 @@
         <v>291.1516412069695</v>
       </c>
       <c r="L41" t="n">
-        <v>411.6741107500496</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M41" t="n">
         <v>464.2785454406508</v>
       </c>
       <c r="N41" t="n">
-        <v>450.3053724474506</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O41" t="n">
-        <v>372.4398977605623</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P41" t="n">
         <v>285.3865533491371</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>80.1704866091316</v>
+        <v>17.42030366054538</v>
       </c>
       <c r="K42" t="n">
-        <v>264.8085946144125</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M42" t="n">
-        <v>399.6064246378824</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N42" t="n">
         <v>569.5810543320048</v>
@@ -37877,7 +37879,7 @@
         <v>344.1715415558447</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>285.3865533491371</v>
       </c>
       <c r="Q44" t="n">
-        <v>136.6325338001981</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054503</v>
       </c>
       <c r="L45" t="n">
         <v>413.8895281620462</v>
@@ -38111,10 +38113,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>282.2351429229594</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
